--- a/JSON_tools_2.xlsx
+++ b/JSON_tools_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bartek\Studia\Semestr 5\Inzynieria oprogramowania\Projekt\JsonTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B813C5-6E58-4BDC-8556-86903874C0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14304" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -139,25 +140,28 @@
     <t>Zaplanować klasy do otestowania</t>
   </si>
   <si>
-    <t>wdrożenie pierwszego testu jednostkowego i mocka</t>
-  </si>
-  <si>
-    <t>20 testów jendostkowych</t>
-  </si>
-  <si>
-    <t>10 mocków</t>
-  </si>
-  <si>
     <t>11h</t>
   </si>
   <si>
     <t>Razem : 11h</t>
+  </si>
+  <si>
+    <t>7BV</t>
+  </si>
+  <si>
+    <t>Wdrożenie pierwszego testu jednostkowego i mocka</t>
+  </si>
+  <si>
+    <t>Wykonanie i przeprowadzenie 20 testów jendostkowych</t>
+  </si>
+  <si>
+    <t>Wykonanie i przeprowadzenie 10 testów jednostkowych z wykorzystaniem mocków</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -392,29 +396,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:E8">
     <sortCondition descending="1" ref="B1:B8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:C10" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A4:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C10" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,29 +745,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -779,23 +783,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -812,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -846,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -863,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -880,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -897,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -914,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -946,30 +950,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -981,15 +988,15 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -997,117 +1004,117 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D32" s="11"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="11"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="11"/>
     </row>
   </sheetData>
